--- a/src/df_lex_variants.xlsx
+++ b/src/df_lex_variants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaimesquin\Documents\TETIS-NLP-foodinsecurity\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C56E037-9F06-4B96-8325-8A63F44B3A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC1500A-09BA-47E8-8F87-92855CEB76A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
     <t>sécheresse</t>
   </si>
   <si>
-    <t>['désertification', "pénurie d'eau", "manque d'eau", 'assèchement', 'séchage', 'épuisement des eaux souterraines', 'bassin asséché', 'captage dégradé', 'puits taris', 'puits taris', "puits assèchent", "puits épuisent", 'puits vides', 'captage abusif', "bas niveau d'eau", "niveau d'eau réduit", 'stress hydrique', 'insécurité hydrique', 'rares pluies', 'mauvaise pluviométrie', 'faible précipitation', 'précipitation insuffisante']</t>
+    <t>['désertification', "pénurie d'eau", "manque d'eau", 'assèchement', 'séchage', 'épuisement des eaux souterraines', 'bassin asséché', 'captage dégradé', 'puits taris', "puits assèchent", "puits épuisent", 'puits vides', 'captage abusif', "bas niveau d'eau", "niveau d'eau réduit", 'stress hydrique', 'insécurité hydrique', 'rares pluies', 'mauvaise pluviométrie', 'faible précipitation', 'précipitation insuffisante']</t>
   </si>
   <si>
     <t>7</t>
@@ -831,8 +831,8 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="91.5">
+    <row r="7" spans="1:5" ht="76.5">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
